--- a/test files/A1XC Limits.xlsx
+++ b/test files/A1XC Limits.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Chfile1\ecs_landrive\Automotive_Lighting\LED\A1XC\DVPR\Limits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Programming Projects\Test Data Analysis\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>B1</t>
   </si>
@@ -50,9 +50,6 @@
     <t>B6</t>
   </si>
   <si>
-    <t>OUTAGE</t>
-  </si>
-  <si>
     <t>Modes</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>All</t>
   </si>
   <si>
     <t>Vin</t>
@@ -136,6 +130,18 @@
   </si>
   <si>
     <t>60C</t>
+  </si>
+  <si>
+    <t>OUTAGE</t>
+  </si>
+  <si>
+    <t>LED Binning</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>DIAGNOSTIC</t>
   </si>
 </sst>
 </file>
@@ -309,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,30 +383,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,6 +406,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,7 +737,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,18 +748,18 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -739,35 +770,38 @@
     </row>
     <row r="4" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="D4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="K4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -775,25 +809,26 @@
         <v>0</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="13">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13">
+        <v>17</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="40">
+        <v>12</v>
+      </c>
+      <c r="H5" s="40">
         <v>16</v>
       </c>
       <c r="I5" s="24"/>
-      <c r="J5" s="38"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="8">
         <v>0</v>
       </c>
@@ -806,23 +841,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="17">
-        <v>9</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
     </row>
@@ -831,21 +859,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="17">
-        <v>14</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
     </row>
@@ -857,11 +880,14 @@
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="41"/>
+        <v>17</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="17">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G8" s="13">
         <v>0</v>
@@ -878,7 +904,18 @@
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="17">
+        <v>14</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -886,10 +923,21 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="17">
+        <v>16</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -899,51 +947,51 @@
       <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33" t="s">
+      <c r="A12" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="37" t="s">
+      <c r="F12" s="49"/>
+      <c r="G12" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="G13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
@@ -951,29 +999,29 @@
       <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>14</v>
+      <c r="A14" s="44" t="s">
+        <v>13</v>
       </c>
       <c r="B14" s="8">
         <v>9</v>
       </c>
       <c r="C14" s="6">
-        <v>1.093</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6">
-        <v>1.335</v>
+        <v>1</v>
       </c>
       <c r="E14" s="6">
-        <v>0.44500000000000001</v>
+        <v>0</v>
       </c>
       <c r="F14" s="6">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1.5049999999999999</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1.839</v>
+        <v>2</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -981,27 +1029,27 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="8">
         <v>14</v>
       </c>
-      <c r="C15" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1.105</v>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1009,27 +1057,27 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="8">
         <v>16</v>
       </c>
-      <c r="C16" s="2">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.753</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.97099999999999997</v>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1051,29 +1099,29 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>15</v>
+      <c r="A18" s="50" t="s">
+        <v>14</v>
       </c>
       <c r="B18" s="8">
         <v>9</v>
       </c>
-      <c r="C18" s="2">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.333</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1.571</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1.92</v>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1081,27 +1129,27 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="8">
         <v>14</v>
       </c>
-      <c r="C19" s="2">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1.1479999999999999</v>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1109,27 +1157,27 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="8">
         <v>16</v>
       </c>
-      <c r="C20" s="2">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.755</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.247</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1.0069999999999999</v>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1151,29 +1199,29 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>33</v>
+      <c r="A22" s="46" t="s">
+        <v>31</v>
       </c>
       <c r="B22" s="8">
         <v>9</v>
       </c>
-      <c r="C22" s="2">
-        <v>1.083</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1.462</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1.7869999999999999</v>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1181,27 +1229,27 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="8">
         <v>14</v>
       </c>
-      <c r="C23" s="2">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.877</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1.0720000000000001</v>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1209,27 +1257,27 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="8">
         <v>16</v>
       </c>
-      <c r="C24" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.745</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.94099999999999995</v>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1237,234 +1285,229 @@
       <c r="L24" s="4"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>34</v>
+      <c r="A26" s="45" t="s">
+        <v>32</v>
       </c>
       <c r="B26" s="8">
         <v>9</v>
       </c>
-      <c r="C26" s="2">
-        <v>1.083</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1.462</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1.7869999999999999</v>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="8">
         <v>14</v>
       </c>
-      <c r="C27" s="2">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.877</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1.0720000000000001</v>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="8">
         <v>16</v>
       </c>
-      <c r="C28" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.745</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.94099999999999995</v>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>35</v>
+      <c r="A30" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="B30" s="8">
         <v>9</v>
       </c>
-      <c r="C30" s="2">
-        <v>1.083</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1.462</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1.7869999999999999</v>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="8">
         <v>14</v>
       </c>
-      <c r="C31" s="2">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0.877</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1.0720000000000001</v>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="8">
         <v>16</v>
       </c>
-      <c r="C32" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.745</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0.94099999999999995</v>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>2</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>36</v>
+      <c r="A34" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="B34" s="8">
         <v>9</v>
       </c>
-      <c r="C34" s="2">
-        <v>1.083</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1.462</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1.7869999999999999</v>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>2</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="8">
         <v>14</v>
       </c>
-      <c r="C35" s="2">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0.877</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1.0720000000000001</v>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>2</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="8">
         <v>16</v>
       </c>
-      <c r="C36" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.745</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0.94099999999999995</v>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>2</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="E6:E8"/>
+  <mergeCells count="18">
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="I12:J12"/>
@@ -1474,6 +1517,15 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
